--- a/Data_preparation/datasets/final_data/SEAGATE_TECHNOLOGY.xlsx
+++ b/Data_preparation/datasets/final_data/SEAGATE_TECHNOLOGY.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="44">
   <si>
     <t>Ticker</t>
   </si>
@@ -146,111 +146,6 @@
   </si>
   <si>
     <t>USD</t>
-  </si>
-  <si>
-    <t>ZBRA</t>
-  </si>
-  <si>
-    <t>TRI</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>CRM</t>
-  </si>
-  <si>
-    <t>FTNT</t>
-  </si>
-  <si>
-    <t>META</t>
-  </si>
-  <si>
-    <t>PEGA</t>
-  </si>
-  <si>
-    <t>HPE</t>
-  </si>
-  <si>
-    <t>CYBR</t>
-  </si>
-  <si>
-    <t>ERIC</t>
-  </si>
-  <si>
-    <t>WIX</t>
-  </si>
-  <si>
-    <t>EBAY</t>
-  </si>
-  <si>
-    <t>TSM</t>
-  </si>
-  <si>
-    <t>VRNT</t>
-  </si>
-  <si>
-    <t>INTC</t>
-  </si>
-  <si>
-    <t>OKTA</t>
-  </si>
-  <si>
-    <t>SNAP</t>
-  </si>
-  <si>
-    <t>AFYA</t>
-  </si>
-  <si>
-    <t>NTAP</t>
-  </si>
-  <si>
-    <t>NICE</t>
-  </si>
-  <si>
-    <t>NVDA</t>
-  </si>
-  <si>
-    <t>ADBE</t>
-  </si>
-  <si>
-    <t>HUBS</t>
-  </si>
-  <si>
-    <t>NFLX</t>
-  </si>
-  <si>
-    <t>STNE</t>
-  </si>
-  <si>
-    <t>NOC</t>
-  </si>
-  <si>
-    <t>LSCC</t>
-  </si>
-  <si>
-    <t>TSLA</t>
-  </si>
-  <si>
-    <t>DXC</t>
-  </si>
-  <si>
-    <t>UI</t>
-  </si>
-  <si>
-    <t>INFA</t>
-  </si>
-  <si>
-    <t>FICO</t>
-  </si>
-  <si>
-    <t>AMBA</t>
-  </si>
-  <si>
-    <t>PATH</t>
-  </si>
-  <si>
-    <t>AMZN</t>
   </si>
 </sst>
 </file>
@@ -757,22 +652,22 @@
         <v>42006</v>
       </c>
       <c r="D2">
-        <v>77.98999786376953</v>
+        <v>40.14482874024634</v>
       </c>
       <c r="E2">
-        <v>83.45999908447266</v>
+        <v>33.98491287231445</v>
       </c>
       <c r="F2">
-        <v>85.66000366210938</v>
+        <v>40.46998615540762</v>
       </c>
       <c r="G2">
-        <v>74.40000152587891</v>
+        <v>33.90663602187954</v>
       </c>
       <c r="H2">
-        <v>50845151</v>
+        <v>212968277</v>
       </c>
       <c r="I2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J2">
         <v>21604311122</v>
@@ -885,22 +780,22 @@
         <v>42097</v>
       </c>
       <c r="D3">
-        <v>32.50155454136809</v>
+        <v>31.62416567886437</v>
       </c>
       <c r="E3">
-        <v>32.94282531738281</v>
+        <v>35.67667770385742</v>
       </c>
       <c r="F3">
-        <v>34.21047339167337</v>
+        <v>36.21741715755352</v>
       </c>
       <c r="G3">
-        <v>32.26888374560449</v>
+        <v>31.01659284231479</v>
       </c>
       <c r="H3">
-        <v>450687724</v>
+        <v>212968277</v>
       </c>
       <c r="I3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J3">
         <v>17221328362</v>
@@ -1013,22 +908,22 @@
         <v>42188</v>
       </c>
       <c r="D4">
-        <v>19.36546186976121</v>
+        <v>29.35318208390361</v>
       </c>
       <c r="E4">
-        <v>20.08906555175781</v>
+        <v>31.02717781066895</v>
       </c>
       <c r="F4">
-        <v>20.242831549833</v>
+        <v>32.4252420009045</v>
       </c>
       <c r="G4">
-        <v>19.17551655018982</v>
+        <v>27.26222013152092</v>
       </c>
       <c r="H4">
-        <v>174270076</v>
+        <v>212968277</v>
       </c>
       <c r="I4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="J4">
         <v>15281920718</v>
@@ -1141,22 +1036,22 @@
         <v>42279</v>
       </c>
       <c r="D5">
-        <v>68.44008297911779</v>
+        <v>27.76902975202814</v>
       </c>
       <c r="E5">
-        <v>76.90107727050781</v>
+        <v>23.58601379394531</v>
       </c>
       <c r="F5">
-        <v>78.55369160257169</v>
+        <v>30.67545035927411</v>
       </c>
       <c r="G5">
-        <v>67.96507621452463</v>
+        <v>22.80518282460153</v>
       </c>
       <c r="H5">
-        <v>952000000</v>
+        <v>212968277</v>
       </c>
       <c r="I5" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="J5">
         <v>13041825486</v>
@@ -1269,22 +1164,22 @@
         <v>42370</v>
       </c>
       <c r="D6">
-        <v>6.107999801635742</v>
+        <v>22.68197645351937</v>
       </c>
       <c r="E6">
-        <v>5.627999782562256</v>
+        <v>18.28785514831543</v>
       </c>
       <c r="F6">
-        <v>6.197999954223633</v>
+        <v>23.21707866150206</v>
       </c>
       <c r="G6">
-        <v>4.728000164031982</v>
+        <v>16.52517074874302</v>
       </c>
       <c r="H6">
-        <v>766266033</v>
+        <v>212968277</v>
       </c>
       <c r="I6" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J6">
         <v>10962508208</v>
@@ -1397,22 +1292,22 @@
         <v>42461</v>
       </c>
       <c r="D7">
-        <v>113.053060611574</v>
+        <v>21.76709185261312</v>
       </c>
       <c r="E7">
-        <v>116.8595962524414</v>
+        <v>13.97845363616943</v>
       </c>
       <c r="F7">
-        <v>120.0499278661556</v>
+        <v>22.98065493415028</v>
       </c>
       <c r="G7">
-        <v>105.6586426163339</v>
+        <v>13.87571820200242</v>
       </c>
       <c r="H7">
-        <v>2168962480</v>
+        <v>212968277</v>
       </c>
       <c r="I7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="J7">
         <v>9986456169</v>
@@ -1513,22 +1408,22 @@
         <v>42552</v>
       </c>
       <c r="D8">
-        <v>13.19996774679334</v>
+        <v>16.05050441407019</v>
       </c>
       <c r="E8">
-        <v>13.69067287445068</v>
+        <v>21.23493003845215</v>
       </c>
       <c r="F8">
-        <v>14.06851604737382</v>
+        <v>21.89790009301792</v>
       </c>
       <c r="G8">
-        <v>12.75833331909089</v>
+        <v>14.64500860651917</v>
       </c>
       <c r="H8">
-        <v>171080665</v>
+        <v>212968277</v>
       </c>
       <c r="I8" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J8">
         <v>7172564008</v>
@@ -1641,22 +1536,22 @@
         <v>42643</v>
       </c>
       <c r="D9">
-        <v>10.08891169552178</v>
+        <v>26.01437322869416</v>
       </c>
       <c r="E9">
-        <v>10.03531837463379</v>
+        <v>23.14712524414062</v>
       </c>
       <c r="F9">
-        <v>10.24075858308116</v>
+        <v>26.53385140766549</v>
       </c>
       <c r="G9">
-        <v>9.423462821204105</v>
+        <v>22.62764706516929</v>
       </c>
       <c r="H9">
-        <v>1319450062</v>
+        <v>212968277</v>
       </c>
       <c r="I9" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J9">
         <v>11511385855</v>
@@ -1769,22 +1664,22 @@
         <v>42734</v>
       </c>
       <c r="D10">
-        <v>45.97999954223633</v>
+        <v>26.37182825209555</v>
       </c>
       <c r="E10">
-        <v>53.06000137329102</v>
+        <v>30.95912933349609</v>
       </c>
       <c r="F10">
-        <v>53.20000076293945</v>
+        <v>32.00824181383994</v>
       </c>
       <c r="G10">
-        <v>45.61000061035156</v>
+        <v>24.36960016990746</v>
       </c>
       <c r="H10">
-        <v>50476952</v>
+        <v>212968277</v>
       </c>
       <c r="I10" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J10">
         <v>11241934474</v>
@@ -1897,22 +1792,22 @@
         <v>42825</v>
       </c>
       <c r="D11">
-        <v>5.311937668057123</v>
+        <v>31.714543606655</v>
       </c>
       <c r="E11">
-        <v>5.160849571228027</v>
+        <v>29.28191375732422</v>
       </c>
       <c r="F11">
-        <v>5.327841658292762</v>
+        <v>35.41908996993069</v>
       </c>
       <c r="G11">
-        <v>4.930241523220734</v>
+        <v>28.63552904239356</v>
       </c>
       <c r="H11">
-        <v>3071530678</v>
+        <v>212968277</v>
       </c>
       <c r="I11" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="J11">
         <v>13557473823</v>
@@ -2013,22 +1908,22 @@
         <v>42916</v>
       </c>
       <c r="D12">
-        <v>70.19999694824219</v>
+        <v>27.46248814059954</v>
       </c>
       <c r="E12">
-        <v>61.70000076293945</v>
+        <v>23.25703048706055</v>
       </c>
       <c r="F12">
-        <v>77.92500305175781</v>
+        <v>28.34450540141072</v>
       </c>
       <c r="G12">
-        <v>61</v>
+        <v>22.49496762755375</v>
       </c>
       <c r="H12">
-        <v>55686229</v>
+        <v>212968277</v>
       </c>
       <c r="I12" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="J12">
         <v>11494313416</v>
@@ -2141,22 +2036,22 @@
         <v>43007</v>
       </c>
       <c r="D13">
-        <v>34.39338093652559</v>
+        <v>24.19152753249695</v>
       </c>
       <c r="E13">
-        <v>33.61638259887695</v>
+        <v>26.58623123168945</v>
       </c>
       <c r="F13">
-        <v>35.08107037354011</v>
+        <v>29.4124117403204</v>
       </c>
       <c r="G13">
-        <v>32.32138309818511</v>
+        <v>23.83915544488351</v>
       </c>
       <c r="H13">
-        <v>457000000</v>
+        <v>212968277</v>
       </c>
       <c r="I13" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="J13">
         <v>9679446199</v>
@@ -2269,22 +2164,22 @@
         <v>43098</v>
       </c>
       <c r="D14">
-        <v>8.751999855041504</v>
+        <v>30.90808921992572</v>
       </c>
       <c r="E14">
-        <v>9.208000183105469</v>
+        <v>40.28634262084961</v>
       </c>
       <c r="F14">
-        <v>9.28600025177002</v>
+        <v>41.19862391758959</v>
       </c>
       <c r="G14">
-        <v>8.696000099182129</v>
+        <v>30.58696720573542</v>
       </c>
       <c r="H14">
-        <v>766266033</v>
+        <v>212968277</v>
       </c>
       <c r="I14" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J14">
         <v>12105089387</v>
@@ -2397,22 +2292,22 @@
         <v>43189</v>
       </c>
       <c r="D15">
-        <v>35.97240561616163</v>
+        <v>43.51355341063856</v>
       </c>
       <c r="E15">
-        <v>31.91368293762207</v>
+        <v>42.69490814208984</v>
       </c>
       <c r="F15">
-        <v>36.75260893317965</v>
+        <v>46.24237003466516</v>
       </c>
       <c r="G15">
-        <v>31.53188151649943</v>
+        <v>41.3526258721224</v>
       </c>
       <c r="H15">
-        <v>5186523104</v>
+        <v>212968277</v>
       </c>
       <c r="I15" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="J15">
         <v>16668099507</v>
@@ -2525,22 +2420,22 @@
         <v>43280</v>
       </c>
       <c r="D16">
-        <v>22.36372947692871</v>
+        <v>41.31452918978942</v>
       </c>
       <c r="E16">
-        <v>22.87315368652344</v>
+        <v>39.2271842956543</v>
       </c>
       <c r="F16">
-        <v>25.01273536682129</v>
+        <v>44.47536785628962</v>
       </c>
       <c r="G16">
-        <v>22.00713157653809</v>
+        <v>38.7128037589177</v>
       </c>
       <c r="H16">
-        <v>60308678</v>
+        <v>212968277</v>
       </c>
       <c r="I16" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="J16">
         <v>16210400514</v>
@@ -2653,22 +2548,22 @@
         <v>43371</v>
       </c>
       <c r="D17">
-        <v>40.01662959399956</v>
+        <v>36.0858345962994</v>
       </c>
       <c r="E17">
-        <v>40.09360122680664</v>
+        <v>30.39005851745605</v>
       </c>
       <c r="F17">
-        <v>42.52247987457982</v>
+        <v>36.49375554109401</v>
       </c>
       <c r="G17">
-        <v>36.22792094161961</v>
+        <v>27.71591394378342</v>
       </c>
       <c r="H17">
-        <v>4757218036</v>
+        <v>212968277</v>
       </c>
       <c r="I17" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="J17">
         <v>13598196539</v>
@@ -2781,22 +2676,22 @@
         <v>43462</v>
       </c>
       <c r="D18">
-        <v>42.82212632249508</v>
+        <v>29.1354452573179</v>
       </c>
       <c r="E18">
-        <v>46.75239944458008</v>
+        <v>34.02208709716797</v>
       </c>
       <c r="F18">
-        <v>46.95784665825049</v>
+        <v>35.58181896176406</v>
       </c>
       <c r="G18">
-        <v>41.83955640128374</v>
+        <v>28.02135483672853</v>
       </c>
       <c r="H18">
-        <v>450687724</v>
+        <v>212968277</v>
       </c>
       <c r="I18" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J18">
         <v>10975825109</v>
@@ -2909,22 +2804,22 @@
         <v>43553</v>
       </c>
       <c r="D19">
-        <v>83.62000274658203</v>
+        <v>37.6572079271242</v>
       </c>
       <c r="E19">
-        <v>104.0299987792969</v>
+        <v>37.61828231811523</v>
       </c>
       <c r="F19">
-        <v>104.9800033569336</v>
+        <v>39.92271282151572</v>
       </c>
       <c r="G19">
-        <v>82.03099822998047</v>
+        <v>33.81130014226662</v>
       </c>
       <c r="H19">
-        <v>168459019</v>
+        <v>212968277</v>
       </c>
       <c r="I19" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="J19">
         <v>13492532288</v>
@@ -3037,22 +2932,22 @@
         <v>43644</v>
       </c>
       <c r="D20">
-        <v>14.72999954223633</v>
+        <v>38.51562040713414</v>
       </c>
       <c r="E20">
-        <v>16.79999923706055</v>
+        <v>36.57286071777344</v>
       </c>
       <c r="F20">
-        <v>18.36000061035156</v>
+        <v>39.16320697025437</v>
       </c>
       <c r="G20">
-        <v>13.96000003814697</v>
+        <v>36.03583727333923</v>
       </c>
       <c r="H20">
-        <v>1435682333</v>
+        <v>212968277</v>
       </c>
       <c r="I20" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="J20">
         <v>13044832972</v>
@@ -3165,22 +3060,22 @@
         <v>43742</v>
       </c>
       <c r="D21">
-        <v>25.26145196294911</v>
+        <v>43.16144301395668</v>
       </c>
       <c r="E21">
-        <v>26.65334892272949</v>
+        <v>46.38256454467773</v>
       </c>
       <c r="F21">
-        <v>27.7589701509457</v>
+        <v>46.47048649051457</v>
       </c>
       <c r="G21">
-        <v>23.40558809466839</v>
+        <v>40.85949853281612</v>
       </c>
       <c r="H21">
-        <v>47008252</v>
+        <v>212968277</v>
       </c>
       <c r="I21" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="J21">
         <v>14441947333</v>
@@ -3293,22 +3188,22 @@
         <v>43833</v>
       </c>
       <c r="D22">
-        <v>52.67881063071722</v>
+        <v>48.32561117432184</v>
       </c>
       <c r="E22">
-        <v>45.39371490478515</v>
+        <v>46.04709243774414</v>
       </c>
       <c r="F22">
-        <v>55.57754440061216</v>
+        <v>51.8484251691426</v>
       </c>
       <c r="G22">
-        <v>45.19819605621869</v>
+        <v>45.8774131497029</v>
       </c>
       <c r="H22">
-        <v>199618386</v>
+        <v>212968277</v>
       </c>
       <c r="I22" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="J22">
         <v>15476311844</v>
@@ -3421,22 +3316,22 @@
         <v>43924</v>
       </c>
       <c r="D23">
-        <v>116.5</v>
+        <v>38.91063368940384</v>
       </c>
       <c r="E23">
-        <v>151.3000030517578</v>
+        <v>41.01258087158203</v>
       </c>
       <c r="F23">
-        <v>158.9400024414062</v>
+        <v>43.73854191057829</v>
       </c>
       <c r="G23">
-        <v>112.5</v>
+        <v>37.31775382246912</v>
       </c>
       <c r="H23">
-        <v>168459019</v>
+        <v>212968277</v>
       </c>
       <c r="I23" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="J23">
         <v>11941348665</v>
@@ -3549,22 +3444,22 @@
         <v>44015</v>
       </c>
       <c r="D24">
-        <v>52.2033288817686</v>
+        <v>40.22891917780825</v>
       </c>
       <c r="E24">
-        <v>72.28928375244141</v>
+        <v>37.60909271240234</v>
       </c>
       <c r="F24">
-        <v>76.42193461658707</v>
+        <v>42.26656409933605</v>
       </c>
       <c r="G24">
-        <v>52.01089689692411</v>
+        <v>36.20353196964999</v>
       </c>
       <c r="H24">
-        <v>5186523104</v>
+        <v>212968277</v>
       </c>
       <c r="I24" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="J24">
         <v>12148623476</v>
@@ -3677,22 +3572,22 @@
         <v>44106</v>
       </c>
       <c r="D25">
-        <v>228.270004272461</v>
+        <v>42.00091843861417</v>
       </c>
       <c r="E25">
-        <v>228.2599945068359</v>
+        <v>40.31481170654297</v>
       </c>
       <c r="F25">
-        <v>240.5800018310547</v>
+        <v>44.68182839988685</v>
       </c>
       <c r="G25">
-        <v>223.3000030517578</v>
+        <v>39.55606239071358</v>
       </c>
       <c r="H25">
-        <v>61741703</v>
+        <v>212968277</v>
       </c>
       <c r="I25" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="J25">
         <v>12548675070</v>
@@ -3805,22 +3700,22 @@
         <v>44197</v>
       </c>
       <c r="D26">
-        <v>13.06822869381222</v>
+        <v>53.06029015741621</v>
       </c>
       <c r="E26">
-        <v>12.9540433883667</v>
+        <v>56.32278823852539</v>
       </c>
       <c r="F26">
-        <v>13.96076895395527</v>
+        <v>65.65028874834994</v>
       </c>
       <c r="G26">
-        <v>12.55140375814208</v>
+        <v>49.44002639349635</v>
       </c>
       <c r="H26">
-        <v>24347000000</v>
+        <v>212968277</v>
       </c>
       <c r="I26" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="J26">
         <v>15970908722</v>
@@ -3933,22 +3828,22 @@
         <v>44288</v>
       </c>
       <c r="D27">
-        <v>483.1199951171875</v>
+        <v>66.39796070487871</v>
       </c>
       <c r="E27">
-        <v>508.3399963378906</v>
+        <v>79.78755187988281</v>
       </c>
       <c r="F27">
-        <v>525.4400024414062</v>
+        <v>83.46582898942557</v>
       </c>
       <c r="G27">
-        <v>480.5</v>
+        <v>66.00263323541735</v>
       </c>
       <c r="H27">
-        <v>418600000</v>
+        <v>212968277</v>
       </c>
       <c r="I27" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="J27">
         <v>18577174654</v>
@@ -4061,22 +3956,22 @@
         <v>44379</v>
       </c>
       <c r="D28">
-        <v>578.8200073242188</v>
+        <v>76.2818797263953</v>
       </c>
       <c r="E28">
-        <v>596.02001953125</v>
+        <v>76.10871124267578</v>
       </c>
       <c r="F28">
-        <v>616.4500122070312</v>
+        <v>78.55042385646477</v>
       </c>
       <c r="G28">
-        <v>543.1699829101562</v>
+        <v>68.28137555018625</v>
       </c>
       <c r="H28">
-        <v>52693110</v>
+        <v>212968277</v>
       </c>
       <c r="I28" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="J28">
         <v>19918848956</v>
@@ -4189,22 +4084,22 @@
         <v>44470</v>
       </c>
       <c r="D29">
-        <v>604.239990234375</v>
+        <v>73.03608249391461</v>
       </c>
       <c r="E29">
-        <v>690.3099975585938</v>
+        <v>77.74977874755859</v>
       </c>
       <c r="F29">
-        <v>690.969970703125</v>
+        <v>78.55285109884113</v>
       </c>
       <c r="G29">
-        <v>594.6799926757812</v>
+        <v>68.26128305397191</v>
       </c>
       <c r="H29">
-        <v>424926346</v>
+        <v>212968277</v>
       </c>
       <c r="I29" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="J29">
         <v>19211974379</v>
@@ -4317,22 +4212,22 @@
         <v>44561</v>
       </c>
       <c r="D30">
-        <v>17.05999946594238</v>
+        <v>99.3259585367214</v>
       </c>
       <c r="E30">
-        <v>15.57999992370606</v>
+        <v>94.15886688232422</v>
       </c>
       <c r="F30">
-        <v>19.65999984741211</v>
+        <v>103.4033927751003</v>
       </c>
       <c r="G30">
-        <v>13.14000034332275</v>
+        <v>80.74902563820369</v>
       </c>
       <c r="H30">
-        <v>250599325</v>
+        <v>212968277</v>
       </c>
       <c r="I30" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="J30">
         <v>25153409066</v>
@@ -4445,22 +4340,22 @@
         <v>44652</v>
       </c>
       <c r="D31">
-        <v>421.9831085808795</v>
+        <v>80.11333617339662</v>
       </c>
       <c r="E31">
-        <v>415.1985778808594</v>
+        <v>72.63231658935547</v>
       </c>
       <c r="F31">
-        <v>450.9733274615733</v>
+        <v>81.27312055279506</v>
       </c>
       <c r="G31">
-        <v>408.5746965536123</v>
+        <v>69.89664930620528</v>
       </c>
       <c r="H31">
-        <v>143182982</v>
+        <v>212968277</v>
       </c>
       <c r="I31" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="J31">
         <v>19573889473</v>
@@ -4573,22 +4468,22 @@
         <v>44743</v>
       </c>
       <c r="D32">
-        <v>47.91999816894531</v>
+        <v>63.48782397067654</v>
       </c>
       <c r="E32">
-        <v>61.5</v>
+        <v>71.50762176513672</v>
       </c>
       <c r="F32">
-        <v>61.63000106811523</v>
+        <v>74.90507892900976</v>
       </c>
       <c r="G32">
-        <v>43.40999984741211</v>
+        <v>60.22447166260122</v>
       </c>
       <c r="H32">
-        <v>136895573</v>
+        <v>212968277</v>
       </c>
       <c r="I32" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="J32">
         <v>14843569818</v>
@@ -4701,22 +4596,22 @@
         <v>44834</v>
       </c>
       <c r="D33">
-        <v>254.5</v>
+        <v>48.44201907237223</v>
       </c>
       <c r="E33">
-        <v>227.5399932861328</v>
+        <v>44.90630340576172</v>
       </c>
       <c r="F33">
-        <v>257.5</v>
+        <v>52.44795822668351</v>
       </c>
       <c r="G33">
-        <v>198.5899963378907</v>
+        <v>44.83396318817324</v>
       </c>
       <c r="H33">
-        <v>3325150886</v>
+        <v>212968277</v>
       </c>
       <c r="I33" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="J33">
         <v>11112050900</v>
@@ -4829,22 +4724,22 @@
         <v>44925</v>
       </c>
       <c r="D34">
-        <v>26.71999931335449</v>
+        <v>48.4469940503439</v>
       </c>
       <c r="E34">
-        <v>28.72999954223633</v>
+        <v>62.14491271972656</v>
       </c>
       <c r="F34">
-        <v>29.72999954223633</v>
+        <v>65.09720983424245</v>
       </c>
       <c r="G34">
-        <v>26.64999961853028</v>
+        <v>46.70495464167461</v>
       </c>
       <c r="H34">
-        <v>178998669</v>
+        <v>212968277</v>
       </c>
       <c r="I34" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="J34">
         <v>10861564037</v>
@@ -4945,22 +4840,22 @@
         <v>45016</v>
       </c>
       <c r="D35">
-        <v>261.1884929516806</v>
+        <v>61.2032349567249</v>
       </c>
       <c r="E35">
-        <v>225.4617156982422</v>
+        <v>54.49869918823242</v>
       </c>
       <c r="F35">
-        <v>262.5264343168398</v>
+        <v>62.89096024374754</v>
       </c>
       <c r="G35">
-        <v>223.9783523558658</v>
+        <v>50.37211672987199</v>
       </c>
       <c r="H35">
-        <v>60498713</v>
+        <v>212968277</v>
       </c>
       <c r="I35" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="J35">
         <v>13652713088</v>
@@ -5061,22 +4956,22 @@
         <v>45107</v>
       </c>
       <c r="D36">
-        <v>18.42000007629395</v>
+        <v>58.12674683097779</v>
       </c>
       <c r="E36">
-        <v>19.04000091552734</v>
+        <v>59.53303909301758</v>
       </c>
       <c r="F36">
-        <v>19.38999938964844</v>
+        <v>60.98621062490095</v>
       </c>
       <c r="G36">
-        <v>17.57999992370605</v>
+        <v>53.73911468730277</v>
       </c>
       <c r="H36">
-        <v>260676335</v>
+        <v>212968277</v>
       </c>
       <c r="I36" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="J36">
         <v>12812186479</v>
@@ -5293,22 +5188,22 @@
         <v>45289</v>
       </c>
       <c r="D38">
-        <v>1152.400024414062</v>
+        <v>80.93645903584445</v>
       </c>
       <c r="E38">
-        <v>1198.829956054688</v>
+        <v>81.87291717529297</v>
       </c>
       <c r="F38">
-        <v>1307.140014648438</v>
+        <v>87.95031915185052</v>
       </c>
       <c r="G38">
-        <v>1113.18994140625</v>
+        <v>75.86240454509661</v>
       </c>
       <c r="H38">
-        <v>24003656</v>
+        <v>212968277</v>
       </c>
       <c r="I38" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="J38">
         <v>17858036885</v>
@@ -5409,22 +5304,22 @@
         <v>45380</v>
       </c>
       <c r="D39">
-        <v>104.6600036621094</v>
+        <v>89.73660419246195</v>
       </c>
       <c r="E39">
-        <v>92.98000335693359</v>
+        <v>82.76190948486328</v>
       </c>
       <c r="F39">
-        <v>105.0100021362305</v>
+        <v>90.88299272372689</v>
       </c>
       <c r="G39">
-        <v>90.66999816894533</v>
+        <v>79.29382234036787</v>
       </c>
       <c r="H39">
-        <v>168459019</v>
+        <v>212968277</v>
       </c>
       <c r="I39" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="J39">
         <v>19494973333</v>
@@ -5525,22 +5420,22 @@
         <v>45471</v>
       </c>
       <c r="D40">
-        <v>53.97000122070312</v>
+        <v>99.88533207244586</v>
       </c>
       <c r="E40">
-        <v>52.63999938964844</v>
+        <v>99.08042907714844</v>
       </c>
       <c r="F40">
-        <v>65.87999725341797</v>
+        <v>110.1357003202436</v>
       </c>
       <c r="G40">
-        <v>50.29000091552734</v>
+        <v>95.65717567631934</v>
       </c>
       <c r="H40">
-        <v>42689006</v>
+        <v>212968277</v>
       </c>
       <c r="I40" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="J40">
         <v>21685516732</v>
@@ -5641,22 +5536,22 @@
         <v>45562</v>
       </c>
       <c r="D41">
-        <v>36.50313191135645</v>
+        <v>106.678686533637</v>
       </c>
       <c r="E41">
-        <v>39.63111877441406</v>
+        <v>97.98975372314452</v>
       </c>
       <c r="F41">
-        <v>41.15769383693995</v>
+        <v>112.5852153056132</v>
       </c>
       <c r="G41">
-        <v>34.26814654717644</v>
+        <v>96.56437814469898</v>
       </c>
       <c r="H41">
-        <v>171080665</v>
+        <v>212968277</v>
       </c>
       <c r="I41" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J41">
         <v>22856630289</v>
@@ -5757,22 +5652,22 @@
         <v>45653</v>
       </c>
       <c r="D42">
-        <v>12.96000003814697</v>
+        <v>85.7743320136673</v>
       </c>
       <c r="E42">
-        <v>14.22000026702881</v>
+        <v>94.77370452880859</v>
       </c>
       <c r="F42">
-        <v>15.34500026702881</v>
+        <v>110.0677205656978</v>
       </c>
       <c r="G42">
-        <v>12.61999988555908</v>
+        <v>84.37771011617207</v>
       </c>
       <c r="H42">
-        <v>453568899</v>
+        <v>212968277</v>
       </c>
       <c r="I42" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="J42">
         <v>18485563792</v>
@@ -5873,22 +5768,22 @@
         <v>45744</v>
       </c>
       <c r="D43">
-        <v>187.8600006103516</v>
+        <v>83.8887094637239</v>
       </c>
       <c r="E43">
-        <v>184.4199981689453</v>
+        <v>90.2646484375</v>
       </c>
       <c r="F43">
-        <v>198.3399963378907</v>
+        <v>90.74061608380831</v>
       </c>
       <c r="G43">
-        <v>161.3800048828125</v>
+        <v>62.65871786546948</v>
       </c>
       <c r="H43">
-        <v>10664912097</v>
+        <v>212968277</v>
       </c>
       <c r="I43" t="s">
-        <v>78</v>
+        <v>42</v>
       </c>
       <c r="J43">
         <v>17978191814</v>
@@ -6001,22 +5896,22 @@
         <v>45835</v>
       </c>
       <c r="D44">
-        <v>105.0804770925983</v>
+        <v>143.1886625997294</v>
       </c>
       <c r="E44">
-        <v>103.1780242919922</v>
+        <v>156.5166473388672</v>
       </c>
       <c r="F44">
-        <v>109.3114367486601</v>
+        <v>156.955267231608</v>
       </c>
       <c r="G44">
-        <v>101.4440230697358</v>
+        <v>137.8654452705798</v>
       </c>
       <c r="H44">
-        <v>199618386</v>
+        <v>212968277</v>
       </c>
       <c r="I44" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="J44">
         <v>30016037967</v>
